--- a/data/trans_orig/Q25_A_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12020</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6123</v>
+        <v>6401</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19843</v>
+        <v>20535</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1012890237495878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05160007394606487</v>
+        <v>0.05393705352753209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1672121980507751</v>
+        <v>0.1730446361624524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4846</v>
+        <v>4765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01823496433956836</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09360979418877161</v>
+        <v>0.09203998313885739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>12964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7275</v>
+        <v>7435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20801</v>
+        <v>22499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07606264784195754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04268473444560138</v>
+        <v>0.04362322743479895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.122044740978576</v>
+        <v>0.1320104988282792</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22455</v>
+        <v>22816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41030</v>
+        <v>41647</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2660083011267223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1892258039314084</v>
+        <v>0.1922645197340463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3457536734571572</v>
+        <v>0.3509485504816409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>8534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4240</v>
+        <v>4289</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15340</v>
+        <v>15240</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1648633346276918</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08190800365478905</v>
+        <v>0.08285309698110602</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2963276687947657</v>
+        <v>0.2943988582223147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -857,19 +857,19 @@
         <v>40101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29873</v>
+        <v>29790</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51264</v>
+        <v>52001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2352870941900099</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1752730706993247</v>
+        <v>0.1747889748542076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3007797827109296</v>
+        <v>0.3051069391949903</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>45225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35068</v>
+        <v>35559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56350</v>
+        <v>56175</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3811058307277049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2955112971300762</v>
+        <v>0.2996444565268933</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4748471974232797</v>
+        <v>0.473375689316034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -907,19 +907,19 @@
         <v>18225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11598</v>
+        <v>12174</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25130</v>
+        <v>25476</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3520665080757729</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2240353194872347</v>
+        <v>0.2351711851420794</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4854348112431669</v>
+        <v>0.4921300932871352</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -928,19 +928,19 @@
         <v>63451</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50804</v>
+        <v>51418</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75963</v>
+        <v>76431</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3722855891341649</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2980825235755572</v>
+        <v>0.3016851392930269</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4456954428600514</v>
+        <v>0.4484442114460754</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>29857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20846</v>
+        <v>20842</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40420</v>
+        <v>39752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.251596844395985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1756611555589532</v>
+        <v>0.175631154336867</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3406082590915127</v>
+        <v>0.3349825913771766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -978,19 +978,19 @@
         <v>24063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17337</v>
+        <v>16739</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31021</v>
+        <v>30778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.464835192956967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.334909669735624</v>
+        <v>0.3233460687872758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5992337528163568</v>
+        <v>0.5945390584046577</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -999,19 +999,19 @@
         <v>53920</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42184</v>
+        <v>42225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66765</v>
+        <v>66926</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3163646688338677</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2475083491587197</v>
+        <v>0.2477458881711891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3917306374004761</v>
+        <v>0.3926737145859068</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>15626</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9361</v>
+        <v>9753</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24006</v>
+        <v>24351</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08045400217646874</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04819489221369774</v>
+        <v>0.05021718137049624</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1235996696408017</v>
+        <v>0.1253763675098753</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7577</v>
+        <v>7297</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02937997212897905</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1052029703990078</v>
+        <v>0.1013126110143164</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1145,19 +1145,19 @@
         <v>17742</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11139</v>
+        <v>10635</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26710</v>
+        <v>26721</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06663746074191121</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04183651835513563</v>
+        <v>0.03994378665176401</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1003180955732993</v>
+        <v>0.1003583478648078</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>52633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40508</v>
+        <v>40683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65101</v>
+        <v>67021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2709886791731477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2085603757437275</v>
+        <v>0.2094653721920404</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3351856612144155</v>
+        <v>0.3450694573527722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1195,19 +1195,19 @@
         <v>10164</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5041</v>
+        <v>5163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16592</v>
+        <v>17758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1411110415760777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06999440740321415</v>
+        <v>0.07168528772409684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2303578360519994</v>
+        <v>0.246543267998464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1216,19 +1216,19 @@
         <v>62796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50023</v>
+        <v>49920</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76510</v>
+        <v>77934</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2358541938072223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1878795124016461</v>
+        <v>0.1874940548812805</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2873615801604915</v>
+        <v>0.292708059721003</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>83617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71418</v>
+        <v>71162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97705</v>
+        <v>97704</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4305176851723375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3677058420321291</v>
+        <v>0.3663871088091614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5030487477868992</v>
+        <v>0.5030461374873255</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -1266,19 +1266,19 @@
         <v>36719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28414</v>
+        <v>28470</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44464</v>
+        <v>44955</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.509795611888802</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3945021781804626</v>
+        <v>0.3952670328149305</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6173257309960036</v>
+        <v>0.6241495225305426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -1287,19 +1287,19 @@
         <v>120336</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>105191</v>
+        <v>106186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137739</v>
+        <v>138581</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4519639418766815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3950806170676723</v>
+        <v>0.3988182341538983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5173259809696983</v>
+        <v>0.520488364544094</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>42349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31588</v>
+        <v>31645</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54194</v>
+        <v>54730</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2180396334780461</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1626359579531542</v>
+        <v>0.162931592598902</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2790289486760243</v>
+        <v>0.2817879168853066</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1337,19 +1337,19 @@
         <v>23028</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15710</v>
+        <v>15434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31835</v>
+        <v>30708</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3197133744061412</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2181205329365291</v>
+        <v>0.2142879441339456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4419952534188467</v>
+        <v>0.4263444811384077</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -1358,19 +1358,19 @@
         <v>65376</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52077</v>
+        <v>50848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>78964</v>
+        <v>79170</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.245544403574185</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1955925822216791</v>
+        <v>0.1909792579471747</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2965758894308818</v>
+        <v>0.2973498903114788</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>19888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12638</v>
+        <v>12416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31330</v>
+        <v>30323</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09211707719766758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05853617985039127</v>
+        <v>0.05750990000512718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1451153068828523</v>
+        <v>0.1404511480046332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1483,19 +1483,19 @@
         <v>4200</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1120</v>
+        <v>1144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9755</v>
+        <v>9759</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05133397621199728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01368917552647187</v>
+        <v>0.01398601825285294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1192428109754622</v>
+        <v>0.1192970730168029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1504,19 +1504,19 @@
         <v>24088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15765</v>
+        <v>15520</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36006</v>
+        <v>36215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08091012183682524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05295467898247482</v>
+        <v>0.05213114062120841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1209449640778875</v>
+        <v>0.1216464268300699</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>65925</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52372</v>
+        <v>53439</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>79754</v>
+        <v>80527</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3053491607213803</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2425750523936819</v>
+        <v>0.2475175014364101</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3694034413909043</v>
+        <v>0.372986485270543</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1554,19 +1554,19 @@
         <v>13238</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7348</v>
+        <v>7237</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21422</v>
+        <v>21281</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1618158387194043</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08981921912856956</v>
+        <v>0.08845836187136293</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2618548834723297</v>
+        <v>0.2601388802450347</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -1575,19 +1575,19 @@
         <v>79162</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63797</v>
+        <v>64577</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>96034</v>
+        <v>95019</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2659070512791692</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2142954566767434</v>
+        <v>0.2169158925397621</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3225784728864624</v>
+        <v>0.3191696383528935</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>75088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62457</v>
+        <v>62165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89178</v>
+        <v>88770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3477921281878433</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2892896131061458</v>
+        <v>0.2879346738292388</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4130530311257869</v>
+        <v>0.4111629402822135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1625,19 +1625,19 @@
         <v>33706</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24959</v>
+        <v>24392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42162</v>
+        <v>42961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4120110994603902</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.305086945289839</v>
+        <v>0.2981564631562325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5153826527308432</v>
+        <v>0.5251395785423834</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -1646,19 +1646,19 @@
         <v>108794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93571</v>
+        <v>92913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127293</v>
+        <v>126505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3654391223343533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3143059934049041</v>
+        <v>0.3120939871632301</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4275792558843683</v>
+        <v>0.4249297259483654</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>54998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42744</v>
+        <v>42899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70265</v>
+        <v>67414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2547416338931088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1979820313130195</v>
+        <v>0.1986976220562706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3254510562936452</v>
+        <v>0.3122501132865534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1696,19 +1696,19 @@
         <v>30665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22911</v>
+        <v>22011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39696</v>
+        <v>39459</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3748390856082082</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2800530150689186</v>
+        <v>0.2690551474669711</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4852324544071878</v>
+        <v>0.4823380114348556</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1717,19 +1717,19 @@
         <v>85663</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70435</v>
+        <v>70026</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>101447</v>
+        <v>102172</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2877437045496523</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2365931124859366</v>
+        <v>0.2352171640345758</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3407628797084828</v>
+        <v>0.3431957973872368</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>15055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8540</v>
+        <v>9316</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23301</v>
+        <v>23529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1933829601174139</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1097035155676876</v>
+        <v>0.1196659785655842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2993162174564335</v>
+        <v>0.3022355089341986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5617</v>
+        <v>5727</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03211846552463479</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1574636156350146</v>
+        <v>0.1605469957184159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1863,19 +1863,19 @@
         <v>16200</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9729</v>
+        <v>9981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24393</v>
+        <v>24899</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1427086636710651</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08569976731691981</v>
+        <v>0.08791859945299654</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2148781164224279</v>
+        <v>0.2193295290783327</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>20933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13353</v>
+        <v>13704</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29718</v>
+        <v>30292</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2688974547257907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1715305576801985</v>
+        <v>0.1760284494709914</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3817449985737852</v>
+        <v>0.3891084464201252</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1913,19 +1913,19 @@
         <v>7062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3014</v>
+        <v>2991</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12492</v>
+        <v>13485</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1979774263103097</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08448705191429483</v>
+        <v>0.08384921047174787</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3501890027300769</v>
+        <v>0.3780218190515726</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -1934,19 +1934,19 @@
         <v>27996</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19239</v>
+        <v>19775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37805</v>
+        <v>38625</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2466121863349735</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1694718749120854</v>
+        <v>0.1742008040777448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3330206231715628</v>
+        <v>0.3402495738661652</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>23463</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16243</v>
+        <v>16314</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32111</v>
+        <v>31805</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3013951363996242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2086411527725274</v>
+        <v>0.2095640091277812</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4124812975733074</v>
+        <v>0.408544122238725</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -1984,19 +1984,19 @@
         <v>17268</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11449</v>
+        <v>11127</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22831</v>
+        <v>23570</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4840884807963596</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3209393740665651</v>
+        <v>0.311935411694287</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6400290835103409</v>
+        <v>0.6607329926507658</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>41</v>
@@ -2005,19 +2005,19 @@
         <v>40732</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31519</v>
+        <v>31471</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>50271</v>
+        <v>51267</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3588030408246669</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2776509017580165</v>
+        <v>0.2772263353943153</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.442830520205608</v>
+        <v>0.4516066636744635</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>18398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11429</v>
+        <v>11206</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26145</v>
+        <v>26068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2363244487571712</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.146810965960768</v>
+        <v>0.1439465249415861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3358380955459222</v>
+        <v>0.3348470969245852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2055,19 +2055,19 @@
         <v>10196</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5467</v>
+        <v>5460</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16666</v>
+        <v>16060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2858156273686959</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.153263809127752</v>
+        <v>0.1530722670484627</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4671993024402569</v>
+        <v>0.4502002597196224</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -2076,19 +2076,19 @@
         <v>28593</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20301</v>
+        <v>20368</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38294</v>
+        <v>38666</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2518761091692945</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1788335938422148</v>
+        <v>0.1794179224175945</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3373325722186683</v>
+        <v>0.3406104761176699</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>62589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48311</v>
+        <v>48904</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79206</v>
+        <v>78528</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1031724533767573</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07963720389655289</v>
+        <v>0.08061426645922008</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1305647926272736</v>
+        <v>0.1294466325892374</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2201,19 +2201,19 @@
         <v>8405</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4108</v>
+        <v>3423</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16912</v>
+        <v>16187</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03483750715024277</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01702592942697528</v>
+        <v>0.01418603935580743</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07009310025091188</v>
+        <v>0.06708771280403791</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>70</v>
@@ -2222,19 +2222,19 @@
         <v>70994</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>55074</v>
+        <v>56970</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>87255</v>
+        <v>89096</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08372780854859353</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06495259332159918</v>
+        <v>0.06718871723251349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1029055942668018</v>
+        <v>0.1050763405640474</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>171058</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150451</v>
+        <v>150061</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192964</v>
+        <v>192595</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2819747035135001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2480060436200621</v>
+        <v>0.247363469757015</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3180848131385036</v>
+        <v>0.3174770768501008</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -2272,19 +2272,19 @@
         <v>38998</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28417</v>
+        <v>27697</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50991</v>
+        <v>51273</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1616352418204917</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1177810134873798</v>
+        <v>0.1147959923286811</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2113424883395065</v>
+        <v>0.21250742278923</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>207</v>
@@ -2293,19 +2293,19 @@
         <v>210056</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>187096</v>
+        <v>186840</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>238547</v>
+        <v>236346</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2477322226066367</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2206536362925783</v>
+        <v>0.2203516373619164</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2813335225373593</v>
+        <v>0.2787379072131371</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>227394</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203536</v>
+        <v>205150</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>250967</v>
+        <v>252301</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3748404736935353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3355120194813432</v>
+        <v>0.3381732116004308</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4136990433402349</v>
+        <v>0.415898099667113</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -2343,19 +2343,19 @@
         <v>105919</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90882</v>
+        <v>90245</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>121676</v>
+        <v>121303</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4389971160265014</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3766738384626899</v>
+        <v>0.3740338092402548</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5043066773661119</v>
+        <v>0.5027587994075391</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>332</v>
@@ -2364,19 +2364,19 @@
         <v>333313</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>302489</v>
+        <v>306153</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>359360</v>
+        <v>360534</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3930961860694092</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3567436483520639</v>
+        <v>0.3610647758732988</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4238159275942348</v>
+        <v>0.4252000922908049</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>145602</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>124763</v>
+        <v>125508</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>168501</v>
+        <v>167766</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2400123694162073</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2056622914057047</v>
+        <v>0.2068897930746148</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2777595752539726</v>
+        <v>0.2765479133632756</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>88</v>
@@ -2414,19 +2414,19 @@
         <v>87952</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>73666</v>
+        <v>73601</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>103665</v>
+        <v>103452</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3645301350027642</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3053189415630371</v>
+        <v>0.3050515772925961</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4296563030774924</v>
+        <v>0.4287751868101</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>229</v>
@@ -2435,19 +2435,19 @@
         <v>233553</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>204605</v>
+        <v>206395</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>258653</v>
+        <v>260011</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2754437827753606</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2413030445647151</v>
+        <v>0.2434146631701033</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3050451407254801</v>
+        <v>0.3066471122733971</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>32488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21547</v>
+        <v>22880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44636</v>
+        <v>45156</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.152540727546984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1011712949228792</v>
+        <v>0.1074269335762572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2095817658103047</v>
+        <v>0.2120201935577299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2800,19 +2800,19 @@
         <v>4133</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10322</v>
+        <v>10201</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03586192295836898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008775350039452574</v>
+        <v>0.008871430010526805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08956461927570325</v>
+        <v>0.08850808291804269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2821,19 +2821,19 @@
         <v>36621</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25528</v>
+        <v>27103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50045</v>
+        <v>49180</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.111571268730125</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07777415634774931</v>
+        <v>0.08257299473665018</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.152470474052861</v>
+        <v>0.1498333831760876</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>44360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32506</v>
+        <v>32559</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57428</v>
+        <v>57146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2082859975366887</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1526240894118095</v>
+        <v>0.1528749050524521</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2696417761131868</v>
+        <v>0.2683199601428958</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -2871,19 +2871,19 @@
         <v>22751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15748</v>
+        <v>15185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33973</v>
+        <v>32804</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1974071560963111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1366423385335976</v>
+        <v>0.1317523254879953</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2947756297324401</v>
+        <v>0.2846340974648793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -2892,19 +2892,19 @@
         <v>67112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52647</v>
+        <v>54775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84480</v>
+        <v>85544</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2044661071295309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.160396145999867</v>
+        <v>0.166880249874728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2573809689206704</v>
+        <v>0.2606221231558952</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>65153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52488</v>
+        <v>52121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80311</v>
+        <v>80034</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3059151177353435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2464465483587184</v>
+        <v>0.2447267631096154</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3770858745834158</v>
+        <v>0.3757836860469625</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -2942,19 +2942,19 @@
         <v>43203</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33163</v>
+        <v>32742</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54289</v>
+        <v>53632</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3748598010905899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2877473037354255</v>
+        <v>0.2840922784557351</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4710531499680928</v>
+        <v>0.4653462020783179</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>101</v>
@@ -2963,19 +2963,19 @@
         <v>108356</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90568</v>
+        <v>92202</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124889</v>
+        <v>127205</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3301236822241826</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2759281290529587</v>
+        <v>0.2809076360501699</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.380490853941673</v>
+        <v>0.3875479971906789</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>70977</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57513</v>
+        <v>57841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84625</v>
+        <v>84835</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3332581571809838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2700411076340988</v>
+        <v>0.2715818753686775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3973416108047778</v>
+        <v>0.3983275492185249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -3013,19 +3013,19 @@
         <v>45164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33718</v>
+        <v>34603</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55370</v>
+        <v>55915</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.39187111985473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2925602244241116</v>
+        <v>0.3002405997677574</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4804266999045254</v>
+        <v>0.485162404412221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>108</v>
@@ -3034,19 +3034,19 @@
         <v>116141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97731</v>
+        <v>96556</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133858</v>
+        <v>133277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3538389419161614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2977523889947069</v>
+        <v>0.2941727673922721</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4078167486722853</v>
+        <v>0.4060488479126895</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>29268</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19802</v>
+        <v>20385</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41704</v>
+        <v>40916</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1116548024544014</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07554288865697534</v>
+        <v>0.07776723688004106</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1590976922516586</v>
+        <v>0.1560935282992212</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -3159,19 +3159,19 @@
         <v>12404</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6727</v>
+        <v>7032</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20612</v>
+        <v>20981</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09767196076546401</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05297228125277519</v>
+        <v>0.05537319271367412</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1623027035070921</v>
+        <v>0.1652063874907703</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>39</v>
@@ -3180,19 +3180,19 @@
         <v>41672</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30519</v>
+        <v>30905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>56461</v>
+        <v>55848</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1070912555182359</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07843121218191629</v>
+        <v>0.07942241385099723</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1450981724826069</v>
+        <v>0.1435221637471319</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>75216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60207</v>
+        <v>60154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91108</v>
+        <v>92042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2869444689451827</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.22968874354651</v>
+        <v>0.2294847971806508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3475745232341969</v>
+        <v>0.3511353851377428</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3230,19 +3230,19 @@
         <v>13320</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6960</v>
+        <v>6818</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21541</v>
+        <v>22704</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1048838937292304</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05480242086346032</v>
+        <v>0.0536833198205058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1696184714682166</v>
+        <v>0.1787739124654985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -3251,19 +3251,19 @@
         <v>88536</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71081</v>
+        <v>74236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107410</v>
+        <v>110852</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2275257900595727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1826700463337372</v>
+        <v>0.1907768760600775</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2760299675980499</v>
+        <v>0.2848761388355766</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>78418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63546</v>
+        <v>63148</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93986</v>
+        <v>92606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2991603634653631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2424253767884298</v>
+        <v>0.240907561568075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3585529395546433</v>
+        <v>0.3532874099586754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -3301,19 +3301,19 @@
         <v>53326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41287</v>
+        <v>42609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64937</v>
+        <v>65713</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4198996350061474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3251060989055981</v>
+        <v>0.3355134939056972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5113303583398631</v>
+        <v>0.5174380225616286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -3322,19 +3322,19 @@
         <v>131744</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112020</v>
+        <v>111115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151601</v>
+        <v>152427</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3385657536551648</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2878786621733503</v>
+        <v>0.2855531036028496</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3895973956811509</v>
+        <v>0.3917184220412519</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>79225</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63484</v>
+        <v>64775</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95438</v>
+        <v>94497</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3022403651350527</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2421901168592624</v>
+        <v>0.2471135984369814</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3640935608676667</v>
+        <v>0.3605040329757752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -3372,19 +3372,19 @@
         <v>47947</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36712</v>
+        <v>36498</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59570</v>
+        <v>59030</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3775445104991583</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2890743611315124</v>
+        <v>0.2873918205506001</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4690667653880692</v>
+        <v>0.4648101979201649</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -3393,19 +3393,19 @@
         <v>127172</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109448</v>
+        <v>108934</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147197</v>
+        <v>146167</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3268172007670266</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2812675450640851</v>
+        <v>0.2799463104968072</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3782788423146445</v>
+        <v>0.3756329714953223</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>48468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35635</v>
+        <v>36112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62819</v>
+        <v>64294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2005363462435499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1474400629036166</v>
+        <v>0.1494159763576363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2599172866529671</v>
+        <v>0.2660164173152207</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10374</v>
+        <v>10894</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03023315565842633</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1061085558889609</v>
+        <v>0.1114214999440884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -3539,19 +3539,19 @@
         <v>51424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37531</v>
+        <v>37851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>66026</v>
+        <v>66123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1514859911709869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.110560265846853</v>
+        <v>0.1115019419299596</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1945027847031842</v>
+        <v>0.1947875681737992</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>54471</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42135</v>
+        <v>42466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69298</v>
+        <v>69562</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2253741830005316</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1743343924260194</v>
+        <v>0.1757038271957578</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2867222356966728</v>
+        <v>0.2878134326751029</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>22</v>
@@ -3589,19 +3589,19 @@
         <v>26207</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17700</v>
+        <v>17491</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>36115</v>
+        <v>36702</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2680435133684834</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1810338562500359</v>
+        <v>0.1788956857607486</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3693842776729532</v>
+        <v>0.3753900603464417</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>74</v>
@@ -3610,19 +3610,19 @@
         <v>80678</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>64631</v>
+        <v>64499</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>97975</v>
+        <v>97339</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2376637108600253</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1903933175944805</v>
+        <v>0.1900049639649399</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2886207065482542</v>
+        <v>0.2867449838799117</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>80746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66096</v>
+        <v>67633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94963</v>
+        <v>97306</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3340898297493946</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.273473455287158</v>
+        <v>0.2798318271983615</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3929117254199381</v>
+        <v>0.4026048843088498</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -3660,19 +3660,19 @@
         <v>39065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29590</v>
+        <v>29993</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49389</v>
+        <v>48890</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3995514140877766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3026458038371508</v>
+        <v>0.3067717420998447</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5051473877281246</v>
+        <v>0.5000415100266573</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -3681,19 +3681,19 @@
         <v>119811</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101907</v>
+        <v>102725</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139657</v>
+        <v>138173</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3529439330951873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3002011542151801</v>
+        <v>0.3026129112806666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4114071024753963</v>
+        <v>0.4070377685018056</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>58006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45519</v>
+        <v>44036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72740</v>
+        <v>72223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2399996410065239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1883364030282547</v>
+        <v>0.1822010594734633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3009626801416376</v>
+        <v>0.2988255391116226</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -3731,19 +3731,19 @@
         <v>29544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20469</v>
+        <v>21097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39251</v>
+        <v>39641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3021719168853137</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2093572081692532</v>
+        <v>0.2157757300065001</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4014538662968161</v>
+        <v>0.4054455406190001</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -3752,19 +3752,19 @@
         <v>87549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72550</v>
+        <v>72129</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105087</v>
+        <v>104596</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2579063648738005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2137217577939474</v>
+        <v>0.2124798938285825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3095692152884547</v>
+        <v>0.3081240653993391</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>33135</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22120</v>
+        <v>23592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43534</v>
+        <v>45248</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3161708838216932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2110685927041788</v>
+        <v>0.2251115598339208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.415398333447995</v>
+        <v>0.4317576040322519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3877,19 +3877,19 @@
         <v>3132</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>958</v>
+        <v>911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8524</v>
+        <v>7882</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06242575204658737</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01910449504738549</v>
+        <v>0.01815700933671548</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.169918128413465</v>
+        <v>0.1571090515599159</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3898,19 +3898,19 @@
         <v>36267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25879</v>
+        <v>25560</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49617</v>
+        <v>48870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2340258585033796</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1669960700924366</v>
+        <v>0.1649345816918893</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3201781546119999</v>
+        <v>0.3153555564777419</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>27103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19212</v>
+        <v>17753</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38008</v>
+        <v>36605</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2586125693099192</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1833160208207233</v>
+        <v>0.1694020158407501</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3626718500978964</v>
+        <v>0.3492834866475977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -3948,19 +3948,19 @@
         <v>10558</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4805</v>
+        <v>5096</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18132</v>
+        <v>18087</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2104445915661989</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09578785320125788</v>
+        <v>0.1015832052483864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3614282288621397</v>
+        <v>0.3605316440472928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -3969,19 +3969,19 @@
         <v>37660</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26159</v>
+        <v>27821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50167</v>
+        <v>50827</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2430191282708345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1688042752865623</v>
+        <v>0.1795242205557521</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3237220653025501</v>
+        <v>0.3279832922223035</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>30567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21568</v>
+        <v>22170</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40502</v>
+        <v>41910</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2916665711295999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.205801321169173</v>
+        <v>0.2115425115031445</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3864690377868381</v>
+        <v>0.3999024616695488</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -4019,19 +4019,19 @@
         <v>17659</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10494</v>
+        <v>10806</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25148</v>
+        <v>25758</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3520026173527618</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2091864110244387</v>
+        <v>0.2153951204452799</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5012673544814823</v>
+        <v>0.5134272061195114</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>44</v>
@@ -4040,19 +4040,19 @@
         <v>48226</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37661</v>
+        <v>36961</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>63118</v>
+        <v>61812</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3111991864351079</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2430242771124338</v>
+        <v>0.2385070220134061</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4072956944405229</v>
+        <v>0.3988699888147924</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>13996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7606</v>
+        <v>7709</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23774</v>
+        <v>23424</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1335499757387878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07257185421527461</v>
+        <v>0.07355723187533322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2268526367846256</v>
+        <v>0.2235110499410035</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -4090,19 +4090,19 @@
         <v>18819</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12264</v>
+        <v>11393</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26929</v>
+        <v>26359</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3751270390344519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2444495657572451</v>
+        <v>0.2270954776974624</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5367712994905381</v>
+        <v>0.5254111993733031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -4111,19 +4111,19 @@
         <v>32815</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22727</v>
+        <v>22123</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45264</v>
+        <v>44432</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.211755826790678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1466533528124344</v>
+        <v>0.1427615285699839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2920862127340403</v>
+        <v>0.2867171619488325</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>143358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119116</v>
+        <v>122241</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>167285</v>
+        <v>169741</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1744874443320324</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1449809923636453</v>
+        <v>0.1487849377468997</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2036097146103763</v>
+        <v>0.2065998240955833</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -4236,19 +4236,19 @@
         <v>22625</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14232</v>
+        <v>14480</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33477</v>
+        <v>33516</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05798468591413867</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03647366672558115</v>
+        <v>0.03711143132998403</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0857972235870814</v>
+        <v>0.08589759891489579</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -4257,19 +4257,19 @@
         <v>165983</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>143125</v>
+        <v>142260</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>193597</v>
+        <v>196187</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1369741802952598</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1181113818715133</v>
+        <v>0.1173974500072151</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1597623424420292</v>
+        <v>0.1618995334938069</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>201149</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>173834</v>
+        <v>176283</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>227735</v>
+        <v>226893</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2448279856223675</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2115816055463119</v>
+        <v>0.2145620925467954</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2771871490193535</v>
+        <v>0.2761614517488835</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -4307,19 +4307,19 @@
         <v>72836</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56787</v>
+        <v>57264</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90574</v>
+        <v>90200</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1866688425373815</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1455370513715473</v>
+        <v>0.1467602647363055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2321297850739351</v>
+        <v>0.231170741823589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>246</v>
@@ -4328,19 +4328,19 @@
         <v>273985</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245285</v>
+        <v>243328</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303532</v>
+        <v>305390</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2261010531417335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2024167283873629</v>
+        <v>0.2008016200348849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2504839529240404</v>
+        <v>0.2520171289838705</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>254884</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>228749</v>
+        <v>228845</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>285636</v>
+        <v>281636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3102307532203098</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2784209901216766</v>
+        <v>0.2785381139246793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3476604931234515</v>
+        <v>0.3427925795598506</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -4378,19 +4378,19 @@
         <v>153253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132695</v>
+        <v>131938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>173969</v>
+        <v>172953</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3927674850889705</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3400801737800245</v>
+        <v>0.3381391906726369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4458611407513351</v>
+        <v>0.4432565425829374</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>384</v>
@@ -4399,19 +4399,19 @@
         <v>408136</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>375173</v>
+        <v>374595</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>440717</v>
+        <v>445006</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3368071386842082</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3096047766759402</v>
+        <v>0.3091278041434761</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3636937536214929</v>
+        <v>0.3672332634686364</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>222203</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>195857</v>
+        <v>194836</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>248121</v>
+        <v>247450</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2704538168252902</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2383867119819389</v>
+        <v>0.2371439523503058</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3019996101010134</v>
+        <v>0.3011831042451433</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>131</v>
@@ -4449,19 +4449,19 @@
         <v>141474</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>121526</v>
+        <v>123349</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>160944</v>
+        <v>162135</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3625789864595093</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3114550743516954</v>
+        <v>0.3161276737950412</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4124788813265863</v>
+        <v>0.4155322705826357</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>342</v>
@@ -4470,19 +4470,19 @@
         <v>363677</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>331115</v>
+        <v>332778</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>393887</v>
+        <v>395816</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3001176278787985</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2732462298418224</v>
+        <v>0.2746185516877852</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3250477773881044</v>
+        <v>0.326640257400511</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>39151</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29390</v>
+        <v>27724</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51878</v>
+        <v>50989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1755967469218037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1318157565869098</v>
+        <v>0.1243461355546946</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2326808996224105</v>
+        <v>0.2286920088756486</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4835,19 +4835,19 @@
         <v>3867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10980</v>
+        <v>10314</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03580264276085193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01016674217286871</v>
+        <v>0.01006763586665751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1016607051487637</v>
+        <v>0.09549739191178461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -4856,19 +4856,19 @@
         <v>43018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32167</v>
+        <v>30453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55919</v>
+        <v>55937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1299762821378268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09719028884982839</v>
+        <v>0.09201340703455828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1689556337593387</v>
+        <v>0.1690120493057796</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>56168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44664</v>
+        <v>42709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69641</v>
+        <v>69339</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2519211383960746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2003234473152797</v>
+        <v>0.1915548287601144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3123510724337102</v>
+        <v>0.3109938397530205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -4906,19 +4906,19 @@
         <v>24449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16183</v>
+        <v>15832</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34016</v>
+        <v>33403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.226362613610764</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.149834824213087</v>
+        <v>0.1465772096003133</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3149401027007385</v>
+        <v>0.3092605725860217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -4927,19 +4927,19 @@
         <v>80617</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65136</v>
+        <v>66453</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97329</v>
+        <v>97433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2435803590270377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1968045485370344</v>
+        <v>0.2007837459560112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2940754113518884</v>
+        <v>0.2943879929769541</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>70418</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57217</v>
+        <v>57214</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85067</v>
+        <v>84969</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3158354573002915</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2566269446789378</v>
+        <v>0.2566116981337148</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3815347845456237</v>
+        <v>0.3810980789247523</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -4977,19 +4977,19 @@
         <v>36893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27054</v>
+        <v>27758</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48322</v>
+        <v>48512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3415780095859508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.250483118781808</v>
+        <v>0.2570033568015893</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4473946441459716</v>
+        <v>0.449150404659492</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>101</v>
@@ -4998,19 +4998,19 @@
         <v>107312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>91737</v>
+        <v>89574</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125856</v>
+        <v>124224</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.324236292278607</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2771799149021679</v>
+        <v>0.2706442647346876</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3802682087767346</v>
+        <v>0.3753350376219208</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>57222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45020</v>
+        <v>44502</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72203</v>
+        <v>72107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2566466573818302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2019189313365224</v>
+        <v>0.1995952616978863</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.323839480970611</v>
+        <v>0.3234101476414063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -5048,19 +5048,19 @@
         <v>42799</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32136</v>
+        <v>33107</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54099</v>
+        <v>53855</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3962567340424333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2975311718779798</v>
+        <v>0.3065205952361474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5008828768322043</v>
+        <v>0.4986234262040832</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -5069,19 +5069,19 @@
         <v>100021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84149</v>
+        <v>82502</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119530</v>
+        <v>117529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3022070665565285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.254252282072651</v>
+        <v>0.2492749343854915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.361152967048055</v>
+        <v>0.3551080306317819</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>36196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27188</v>
+        <v>27162</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46700</v>
+        <v>46677</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2066968355487807</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1552577986858069</v>
+        <v>0.1551093139968688</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2666785959931938</v>
+        <v>0.2665444998583679</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -5194,19 +5194,19 @@
         <v>3220</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>971</v>
+        <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8787</v>
+        <v>8242</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03059162165461192</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009221191081995365</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08349212850760183</v>
+        <v>0.0783083364537592</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -5215,19 +5215,19 @@
         <v>39416</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28918</v>
+        <v>29679</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>52506</v>
+        <v>51856</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1405883431210811</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1031447050914165</v>
+        <v>0.1058599618211993</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1872790321404161</v>
+        <v>0.184959272848804</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>45202</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33820</v>
+        <v>33882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56982</v>
+        <v>56952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.258124467667155</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1931273910883933</v>
+        <v>0.1934788408206918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3253932323159917</v>
+        <v>0.3252202260062598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5265,19 +5265,19 @@
         <v>21754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13930</v>
+        <v>14537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32211</v>
+        <v>31693</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2066992245809637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1323556932663177</v>
+        <v>0.1381202076945136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3060527807397845</v>
+        <v>0.3011270828698494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -5286,19 +5286,19 @@
         <v>66957</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54597</v>
+        <v>54540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82119</v>
+        <v>82454</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.238819841654213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1947366301660607</v>
+        <v>0.1945321226509391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2929018035395403</v>
+        <v>0.2940954242781942</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>51890</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41068</v>
+        <v>41265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64455</v>
+        <v>64935</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.296312725086632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2345189083594014</v>
+        <v>0.2356396677562793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3680633431714193</v>
+        <v>0.3708088134064743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>45</v>
@@ -5336,19 +5336,19 @@
         <v>47836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38042</v>
+        <v>38499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58562</v>
+        <v>58417</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4545098991025247</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.361455369023547</v>
+        <v>0.3657943073798147</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5564256514989047</v>
+        <v>0.555047468167991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -5357,19 +5357,19 @@
         <v>99725</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84537</v>
+        <v>83783</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114716</v>
+        <v>116302</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3556986822042787</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.30152394356535</v>
+        <v>0.2988345638530303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4091683947305578</v>
+        <v>0.4148248725014608</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>41830</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31222</v>
+        <v>31487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53492</v>
+        <v>52991</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2388659716974323</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1782933175829222</v>
+        <v>0.1798056188348912</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3054646719752557</v>
+        <v>0.3026043665448453</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -5407,19 +5407,19 @@
         <v>32437</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23759</v>
+        <v>23816</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42467</v>
+        <v>41702</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3081992546618998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2257468701579501</v>
+        <v>0.2262853639130883</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4035014943192701</v>
+        <v>0.3962324127019631</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -5428,19 +5428,19 @@
         <v>74267</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59209</v>
+        <v>60485</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>88024</v>
+        <v>88850</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2648931330204272</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2111839754911425</v>
+        <v>0.215738151897934</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3139637589817573</v>
+        <v>0.3169079036380807</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>30510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21090</v>
+        <v>20312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42178</v>
+        <v>42422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1711045927221841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1182739230788268</v>
+        <v>0.1139128741683023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2365374001848399</v>
+        <v>0.2379050852458353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -5553,19 +5553,19 @@
         <v>11463</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5995</v>
+        <v>5947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19642</v>
+        <v>19658</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1193571388310373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06242511878913401</v>
+        <v>0.06192496581252804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2045159334645517</v>
+        <v>0.2046857056931123</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -5574,19 +5574,19 @@
         <v>41973</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30952</v>
+        <v>30529</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55683</v>
+        <v>56845</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1529897705275441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1128172902661613</v>
+        <v>0.1112771492406292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2029590892723811</v>
+        <v>0.2071946196189324</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>53430</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41915</v>
+        <v>42531</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>66761</v>
+        <v>67260</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2996394916832155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2350618718609918</v>
+        <v>0.2385209320478858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.374405049205632</v>
+        <v>0.3772022397824155</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -5624,19 +5624,19 @@
         <v>21343</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13723</v>
+        <v>13590</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30961</v>
+        <v>30705</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2222323645721756</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.142883540532272</v>
+        <v>0.1415000130068852</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3223760442782709</v>
+        <v>0.3197106518054477</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>72</v>
@@ -5645,19 +5645,19 @@
         <v>74773</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>61404</v>
+        <v>59782</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>89204</v>
+        <v>89336</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2725421904872182</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2238134099815713</v>
+        <v>0.2178992490205839</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3251421988422966</v>
+        <v>0.325622336799883</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>58119</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44947</v>
+        <v>45326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70869</v>
+        <v>71531</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3259405860955051</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2520698882318871</v>
+        <v>0.254192552653536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3974435781940063</v>
+        <v>0.4011519234630167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -5695,19 +5695,19 @@
         <v>37399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27984</v>
+        <v>28523</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47409</v>
+        <v>46977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3894060240702139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2913775045616819</v>
+        <v>0.2969920751179958</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4936353761920538</v>
+        <v>0.4891376626862581</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -5716,19 +5716,19 @@
         <v>95518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82008</v>
+        <v>79063</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113642</v>
+        <v>112190</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.348157430364504</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2989128527131247</v>
+        <v>0.2881779600446662</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4142172706411228</v>
+        <v>0.4089244273651183</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>36254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26830</v>
+        <v>25733</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49057</v>
+        <v>49631</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2033153294990953</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1504631037439909</v>
+        <v>0.1443152291519341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.275119437960497</v>
+        <v>0.2783382250622267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -5766,19 +5766,19 @@
         <v>25835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18032</v>
+        <v>17445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35674</v>
+        <v>34542</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2690044725265732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1877543253393286</v>
+        <v>0.181643335764677</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3714419551386308</v>
+        <v>0.3596560667980049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>60</v>
@@ -5787,19 +5787,19 @@
         <v>62089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47701</v>
+        <v>50277</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75739</v>
+        <v>77966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2263106086207338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1738663384248132</v>
+        <v>0.1832557350846337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2760640912780158</v>
+        <v>0.2841796791402138</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>20228</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12910</v>
+        <v>12696</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30635</v>
+        <v>28918</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1792907730184647</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1144286770078175</v>
+        <v>0.1125288338963657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2715247774571924</v>
+        <v>0.256310109618467</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5912,19 +5912,19 @@
         <v>4615</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1131</v>
+        <v>1484</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10757</v>
+        <v>11017</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06560242422463343</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01608316389369167</v>
+        <v>0.02109097666792776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1529155561486167</v>
+        <v>0.1566135963008211</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -5933,19 +5933,19 @@
         <v>24843</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16087</v>
+        <v>16008</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34857</v>
+        <v>35254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1356298161365986</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08782398117851496</v>
+        <v>0.08739410330143753</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1902984811553887</v>
+        <v>0.1924692026155518</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>30772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21926</v>
+        <v>22489</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40549</v>
+        <v>40658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2727420417477461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1943396700820604</v>
+        <v>0.1993306054890189</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3594012353811888</v>
+        <v>0.3603677650463771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5983,19 +5983,19 @@
         <v>23797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15339</v>
+        <v>16596</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32492</v>
+        <v>32922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3382947207367413</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2180622806155466</v>
+        <v>0.2359240067252844</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4618977291731338</v>
+        <v>0.4680198715668247</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -6004,19 +6004,19 @@
         <v>54569</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43137</v>
+        <v>43431</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68592</v>
+        <v>68112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2979169406814935</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2355036061556057</v>
+        <v>0.237110219188795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3744756379071321</v>
+        <v>0.3718526850140363</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>34336</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24770</v>
+        <v>24201</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44145</v>
+        <v>44868</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3043364292416688</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2195447390069857</v>
+        <v>0.2145053928692656</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3912713575029917</v>
+        <v>0.3976812537771381</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -6054,19 +6054,19 @@
         <v>22415</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15265</v>
+        <v>14078</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30669</v>
+        <v>30558</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3186507337977333</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2170050000949103</v>
+        <v>0.2001326899134838</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4359854066483098</v>
+        <v>0.4344048420565245</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>52</v>
@@ -6075,19 +6075,19 @@
         <v>56752</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43572</v>
+        <v>44404</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69086</v>
+        <v>70325</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3098337052655259</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2378777213219673</v>
+        <v>0.2424223615712304</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3771706716038539</v>
+        <v>0.3839350573546632</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>27487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19022</v>
+        <v>18661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37523</v>
+        <v>38488</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2436307559921204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1685998832776642</v>
+        <v>0.1654022643881914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3325794472758062</v>
+        <v>0.3411327177945088</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -6125,19 +6125,19 @@
         <v>19517</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13362</v>
+        <v>12489</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28060</v>
+        <v>27230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2774521212408919</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1899539067536605</v>
+        <v>0.1775405701966003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3988914385965469</v>
+        <v>0.3870969330499126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -6146,19 +6146,19 @@
         <v>47004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36387</v>
+        <v>36090</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60549</v>
+        <v>59159</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2566195379163819</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1986553822012308</v>
+        <v>0.1970324665941337</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3305641310793394</v>
+        <v>0.3229772843131443</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>126086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>106987</v>
+        <v>106544</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>148034</v>
+        <v>148790</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1829412848314594</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1552297121064064</v>
+        <v>0.1545874288490539</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2147867124489229</v>
+        <v>0.2158834607488171</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -6271,19 +6271,19 @@
         <v>23165</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15315</v>
+        <v>15364</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35194</v>
+        <v>35849</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06101719418048208</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04033986740044641</v>
+        <v>0.04046900201201922</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09270491612896044</v>
+        <v>0.09442940216344765</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>147</v>
@@ -6292,19 +6292,19 @@
         <v>149250</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>127611</v>
+        <v>126798</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>173272</v>
+        <v>172326</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1396358232388053</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1193902448020355</v>
+        <v>0.1186299255614562</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1621101080754909</v>
+        <v>0.1612251576517808</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>185572</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>163715</v>
+        <v>165044</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>208547</v>
+        <v>209960</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2692513337943375</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2375385951656886</v>
+        <v>0.2394664535789218</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3025862191293581</v>
+        <v>0.3046369491127046</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -6342,19 +6342,19 @@
         <v>91344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>73846</v>
+        <v>75250</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108685</v>
+        <v>108777</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2406066035834271</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1945146980010203</v>
+        <v>0.1982152651219307</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2862843274751015</v>
+        <v>0.2865270639000451</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>270</v>
@@ -6363,19 +6363,19 @@
         <v>276916</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249081</v>
+        <v>249111</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>308416</v>
+        <v>306034</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2590771897235687</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2330355806676245</v>
+        <v>0.2330635170643851</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2885485501421792</v>
+        <v>0.2863199524588632</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>214764</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>189574</v>
+        <v>190820</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>241226</v>
+        <v>239836</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3116070463334663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2750581305827047</v>
+        <v>0.2768651027022578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.350001103970193</v>
+        <v>0.3479842552689481</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -6413,19 +6413,19 @@
         <v>144543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124256</v>
+        <v>126169</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>164612</v>
+        <v>167092</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3807371712380884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3272995391266359</v>
+        <v>0.3323375478286201</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4336002245699143</v>
+        <v>0.4401324850703206</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>338</v>
@@ -6434,19 +6434,19 @@
         <v>359307</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>330826</v>
+        <v>328725</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>393110</v>
+        <v>390027</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3361609466575816</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3095143944750756</v>
+        <v>0.3075490277312177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3677864661977974</v>
+        <v>0.3649023669110539</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>162793</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>142740</v>
+        <v>143060</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>189084</v>
+        <v>185720</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2362003350407368</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2071047908019857</v>
+        <v>0.2075688041278481</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.274347137045474</v>
+        <v>0.269465575305504</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>118</v>
@@ -6484,19 +6484,19 @@
         <v>120588</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>103389</v>
+        <v>101589</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>140484</v>
+        <v>141332</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3176390309980024</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2723332516633402</v>
+        <v>0.2675920607384678</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3700459490664655</v>
+        <v>0.3722795126026127</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>270</v>
@@ -6505,19 +6505,19 @@
         <v>283381</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>255737</v>
+        <v>253296</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>311053</v>
+        <v>314099</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2651260403800444</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2392627209804246</v>
+        <v>0.2369788880841182</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2910156750980665</v>
+        <v>0.2938648193248758</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>18601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12414</v>
+        <v>12559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26607</v>
+        <v>26792</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2132896866697298</v>
+        <v>0.2132896866697297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1423448180080675</v>
+        <v>0.1440129563120916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3050888808610964</v>
+        <v>0.3072127925118331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -6870,19 +6870,19 @@
         <v>7408</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3872</v>
+        <v>3897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12619</v>
+        <v>12162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1464833492958411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07656388814707446</v>
+        <v>0.07706415162340259</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2495466359277481</v>
+        <v>0.2405118415765764</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -6891,19 +6891,19 @@
         <v>26009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18082</v>
+        <v>18271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35883</v>
+        <v>34708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1887696615628567</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1312390547154017</v>
+        <v>0.1326125311466865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.260436291328669</v>
+        <v>0.2519122031939974</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>31034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22359</v>
+        <v>23197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40555</v>
+        <v>40749</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3558487099995029</v>
+        <v>0.3558487099995028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2563816823540523</v>
+        <v>0.2659939547788719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4650232371061138</v>
+        <v>0.4672550080543157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -6941,19 +6941,19 @@
         <v>8813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5094</v>
+        <v>5252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14352</v>
+        <v>14271</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1742801135214512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1007409136631166</v>
+        <v>0.1038542387689237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2838022377535908</v>
+        <v>0.2822039853169883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -6962,19 +6962,19 @@
         <v>39847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30866</v>
+        <v>29293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51303</v>
+        <v>49850</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2892073295666094</v>
+        <v>0.2892073295666093</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2240273382801075</v>
+        <v>0.2126063739345569</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3723561810217066</v>
+        <v>0.3618075077495561</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>23650</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16045</v>
+        <v>15410</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32745</v>
+        <v>32629</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2711849553600881</v>
+        <v>0.271184955360088</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.183983843122858</v>
+        <v>0.1766956583400118</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3754767915646671</v>
+        <v>0.3741376657797415</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -7012,19 +7012,19 @@
         <v>17775</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12270</v>
+        <v>12015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24270</v>
+        <v>24038</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3515085465213701</v>
+        <v>0.35150854652137</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2426457306185155</v>
+        <v>0.2376006349873528</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4799331082601374</v>
+        <v>0.4753489835914358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>45</v>
@@ -7033,19 +7033,19 @@
         <v>41426</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31189</v>
+        <v>31658</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52773</v>
+        <v>52858</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3006662373667056</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2263680334713745</v>
+        <v>0.2297745849562847</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3830259560843909</v>
+        <v>0.3836404302781177</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>13925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8318</v>
+        <v>8014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21754</v>
+        <v>21162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1596766479706793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09537643903977935</v>
+        <v>0.09188807506345617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2494458959163964</v>
+        <v>0.2426545751618828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -7083,19 +7083,19 @@
         <v>16573</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11277</v>
+        <v>11163</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22650</v>
+        <v>23153</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3277279906613376</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2230012436973371</v>
+        <v>0.2207434564337497</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4479025897592483</v>
+        <v>0.4578490287218632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -7104,19 +7104,19 @@
         <v>30499</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22475</v>
+        <v>22285</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40556</v>
+        <v>39659</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2213567715038284</v>
+        <v>0.2213567715038283</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1631216995190053</v>
+        <v>0.1617408965480941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2943555909608576</v>
+        <v>0.2878419386377452</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>48325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38482</v>
+        <v>38073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59669</v>
+        <v>59001</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2549556171683574</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2030274103199153</v>
+        <v>0.2008658753232234</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3148048067849968</v>
+        <v>0.3112806401377409</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -7229,19 +7229,19 @@
         <v>16372</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11308</v>
+        <v>11532</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22780</v>
+        <v>23912</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1936019544003229</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1337195549878258</v>
+        <v>0.1363741976298253</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2693759152170816</v>
+        <v>0.2827675515057919</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>95</v>
@@ -7250,19 +7250,19 @@
         <v>64697</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>52222</v>
+        <v>52040</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76113</v>
+        <v>78102</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2360273457903161</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1905184834017279</v>
+        <v>0.1898538209470676</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2776778004877881</v>
+        <v>0.2849332827891624</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>63823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52114</v>
+        <v>51237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76763</v>
+        <v>75831</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3367210197241861</v>
+        <v>0.3367210197241859</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2749481566182571</v>
+        <v>0.2703222317528788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4049894866711232</v>
+        <v>0.4000760065855993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -7300,19 +7300,19 @@
         <v>20622</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14929</v>
+        <v>14937</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28151</v>
+        <v>27078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2438582568163704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1765444893135973</v>
+        <v>0.1766309965804182</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3328956205126025</v>
+        <v>0.3202020934551917</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -7321,19 +7321,19 @@
         <v>84445</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70766</v>
+        <v>70061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99975</v>
+        <v>98404</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.308071848705995</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2581687295154558</v>
+        <v>0.2555970062468598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3647298385129199</v>
+        <v>0.3589977678650231</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>41273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31374</v>
+        <v>31640</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54543</v>
+        <v>53430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2177512865174554</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1655235362111013</v>
+        <v>0.1669262855464335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2877621897078045</v>
+        <v>0.2818919062128269</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -7371,19 +7371,19 @@
         <v>23425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16131</v>
+        <v>16708</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30983</v>
+        <v>31854</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2770046884114791</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1907530709310236</v>
+        <v>0.1975725361620334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3663844826665165</v>
+        <v>0.3766860028861664</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -7392,19 +7392,19 @@
         <v>64698</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52720</v>
+        <v>51312</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79675</v>
+        <v>80072</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2360316046031519</v>
+        <v>0.236031604603152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1923334954682499</v>
+        <v>0.1871960685635055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2906714919997257</v>
+        <v>0.2921202492506205</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>36121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25929</v>
+        <v>25515</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49338</v>
+        <v>49381</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1905720765900012</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.136799509341305</v>
+        <v>0.1346161588466861</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2603001484359739</v>
+        <v>0.2605268482432364</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -7442,19 +7442,19 @@
         <v>24146</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17909</v>
+        <v>17305</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33063</v>
+        <v>32060</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2855351003718277</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2117823903204994</v>
+        <v>0.2046321562810247</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3909783438552242</v>
+        <v>0.3791170860584995</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -7463,19 +7463,19 @@
         <v>60268</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47824</v>
+        <v>46546</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76942</v>
+        <v>74661</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2198692009005371</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1744735315703077</v>
+        <v>0.169808969310037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2806999927220584</v>
+        <v>0.2723803902666886</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>47676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37863</v>
+        <v>38233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59336</v>
+        <v>60271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2881729649697602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.228862119982431</v>
+        <v>0.2310959131884906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3586554919705025</v>
+        <v>0.3643074370300039</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -7588,19 +7588,19 @@
         <v>19341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13832</v>
+        <v>13811</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26326</v>
+        <v>26104</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2108035103153891</v>
+        <v>0.210803510315389</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1507536084110941</v>
+        <v>0.1505333992839682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2869364470742067</v>
+        <v>0.2845175657730322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>94</v>
@@ -7609,19 +7609,19 @@
         <v>67017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55839</v>
+        <v>55054</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80531</v>
+        <v>79879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2605723611579126</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2171132983217119</v>
+        <v>0.2140608820495416</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3131177914293125</v>
+        <v>0.3105849813011828</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>59981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>48592</v>
+        <v>48348</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>72530</v>
+        <v>71216</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3625550678704027</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2937130487217737</v>
+        <v>0.2922363197978873</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4384014835046472</v>
+        <v>0.4304587718375638</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>38</v>
@@ -7659,19 +7659,19 @@
         <v>25253</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18612</v>
+        <v>18259</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32869</v>
+        <v>33179</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2752341609377414</v>
+        <v>0.2752341609377413</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2028532052083837</v>
+        <v>0.1990116657469807</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3582458131600689</v>
+        <v>0.3616279684602702</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>111</v>
@@ -7680,19 +7680,19 @@
         <v>85234</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>71794</v>
+        <v>72313</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>99334</v>
+        <v>100044</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3314044055385281</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2791494403229802</v>
+        <v>0.2811656003338504</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3862294427755494</v>
+        <v>0.3889892129094343</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>38240</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28849</v>
+        <v>28875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49870</v>
+        <v>49407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.231137262719593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1743767032009879</v>
+        <v>0.1745363813631927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3014365301956585</v>
+        <v>0.2986404245552934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -7730,19 +7730,19 @@
         <v>19608</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13422</v>
+        <v>13734</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26593</v>
+        <v>26996</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2137091784583521</v>
+        <v>0.213709178458352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1462879170091616</v>
+        <v>0.1496938514377728</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2898444239134711</v>
+        <v>0.2942381939248884</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -7751,19 +7751,19 @@
         <v>57847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45637</v>
+        <v>46383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70148</v>
+        <v>70372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2249200074598413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1774465554166154</v>
+        <v>0.1803457030422583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.272749207886025</v>
+        <v>0.2736170292304574</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>19544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11923</v>
+        <v>12182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29424</v>
+        <v>29887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.118134704440244</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0720675462955368</v>
+        <v>0.07363333832222344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1778503412919422</v>
+        <v>0.180650424103669</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -7801,19 +7801,19 @@
         <v>27548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19959</v>
+        <v>20007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36678</v>
+        <v>36469</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3002531502885176</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2175353556270942</v>
+        <v>0.2180585932332863</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.399762633734739</v>
+        <v>0.3974847477029742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -7822,19 +7822,19 @@
         <v>47092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35981</v>
+        <v>35972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59766</v>
+        <v>61124</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1831032258437181</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1399016531231604</v>
+        <v>0.1398640620189129</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2323788749820012</v>
+        <v>0.2376616507009177</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>70473</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58256</v>
+        <v>58900</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82335</v>
+        <v>83276</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3425684041028387</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.283182175810687</v>
+        <v>0.2863110548630559</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4002291241554429</v>
+        <v>0.4048003705485149</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -7947,19 +7947,19 @@
         <v>28938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21118</v>
+        <v>21819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37060</v>
+        <v>36569</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2241755311903248</v>
+        <v>0.2241755311903249</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1635947840610387</v>
+        <v>0.1690269529495211</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2870933427369509</v>
+        <v>0.2832884923162467</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -7968,19 +7968,19 @@
         <v>99411</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86321</v>
+        <v>85434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113856</v>
+        <v>115322</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2969214999794716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2578237872242104</v>
+        <v>0.2551757051856495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3400641107687821</v>
+        <v>0.3444442076283579</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>55020</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43445</v>
+        <v>43830</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68168</v>
+        <v>68221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2674508638943994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2111863799319509</v>
+        <v>0.2130574976054074</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3313646312507448</v>
+        <v>0.3316215650186033</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -8018,19 +8018,19 @@
         <v>42262</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33568</v>
+        <v>34000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52265</v>
+        <v>50964</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.327390637984668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2600452439534091</v>
+        <v>0.2633876922361396</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4048825708742266</v>
+        <v>0.3948088628234729</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -8039,19 +8039,19 @@
         <v>97282</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82266</v>
+        <v>84093</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113133</v>
+        <v>112789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2905609131208979</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2457130588341903</v>
+        <v>0.2511692670123681</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3379047532691444</v>
+        <v>0.3368786168565521</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>49411</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37650</v>
+        <v>39381</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>62634</v>
+        <v>61935</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2401838977313271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1830147623296051</v>
+        <v>0.1914282270218298</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3044601080648224</v>
+        <v>0.3010651957613698</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -8089,19 +8089,19 @@
         <v>30635</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23021</v>
+        <v>22880</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40085</v>
+        <v>39633</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2373196349627922</v>
+        <v>0.2373196349627921</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1783391092561419</v>
+        <v>0.1772424137893656</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3105258986878732</v>
+        <v>0.307027770729639</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>97</v>
@@ -8110,19 +8110,19 @@
         <v>80045</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>65879</v>
+        <v>65443</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95485</v>
+        <v>94068</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.239079568350993</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.196766943820236</v>
+        <v>0.1954655333886673</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2851964816003739</v>
+        <v>0.2809635008710596</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>30816</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19921</v>
+        <v>20429</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41893</v>
+        <v>42535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1497968342714347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09683706565051198</v>
+        <v>0.09930427692534292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2036425320759916</v>
+        <v>0.2067636296973661</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -8160,19 +8160,19 @@
         <v>27252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19602</v>
+        <v>19521</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37202</v>
+        <v>36454</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.211114195862215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1518536834018887</v>
+        <v>0.151222272687295</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2881963250655287</v>
+        <v>0.282403937312891</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -8181,19 +8181,19 @@
         <v>58068</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45598</v>
+        <v>45213</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74129</v>
+        <v>72197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1734380185486375</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1361912254577565</v>
+        <v>0.1350410968283668</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2214076777673041</v>
+        <v>0.2156372602727742</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>185075</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>164285</v>
+        <v>164070</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>205904</v>
+        <v>206478</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2856472595694751</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2535608263915169</v>
+        <v>0.2532282230352866</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3177955353532651</v>
+        <v>0.318681812978076</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>115</v>
@@ -8306,19 +8306,19 @@
         <v>72059</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>60407</v>
+        <v>60755</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83895</v>
+        <v>85574</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2024287974155584</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1696971230726016</v>
+        <v>0.1706738976461259</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2356802242466033</v>
+        <v>0.2403972174368784</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>358</v>
@@ -8327,19 +8327,19 @@
         <v>257133</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>234126</v>
+        <v>235983</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>281960</v>
+        <v>284679</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2561385734713337</v>
+        <v>0.2561385734713336</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2332199980501766</v>
+        <v>0.2350700467515589</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2808695746990877</v>
+        <v>0.283578003268291</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>209858</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>189040</v>
+        <v>188516</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233834</v>
+        <v>233956</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3238981253519397</v>
+        <v>0.3238981253519396</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2917668590615493</v>
+        <v>0.2909581236695636</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3609034340376213</v>
+        <v>0.3610920083350848</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -8377,19 +8377,19 @@
         <v>96949</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>81858</v>
+        <v>83154</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110559</v>
+        <v>110880</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2723523800148134</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2299574892523147</v>
+        <v>0.2335991653085015</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3105842050055719</v>
+        <v>0.311488228447629</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>390</v>
@@ -8398,19 +8398,19 @@
         <v>306807</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>279886</v>
+        <v>280111</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>335784</v>
+        <v>331960</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3056203636692647</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2788032911262698</v>
+        <v>0.27902798270367</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3344855148706732</v>
+        <v>0.3306756193728231</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>152573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132457</v>
+        <v>130701</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>173960</v>
+        <v>173003</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2354841987590563</v>
+        <v>0.2354841987590562</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2044369158087899</v>
+        <v>0.2017262237362732</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2684921466797996</v>
+        <v>0.2670154944390453</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>128</v>
@@ -8448,19 +8448,19 @@
         <v>91443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77689</v>
+        <v>78489</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106984</v>
+        <v>105984</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2568836223643033</v>
+        <v>0.2568836223643032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2182446420271074</v>
+        <v>0.220492579300807</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.300541629693741</v>
+        <v>0.2977333095573615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>290</v>
@@ -8469,19 +8469,19 @@
         <v>244016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>216789</v>
+        <v>216487</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>268758</v>
+        <v>269650</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2430722850743316</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2159507648017461</v>
+        <v>0.215649449656873</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2677188817162433</v>
+        <v>0.2686066555339567</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>100407</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>81095</v>
+        <v>81956</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>120718</v>
+        <v>120873</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1549704163195291</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1251626376398845</v>
+        <v>0.1264921298777499</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1863181563166128</v>
+        <v>0.186556930468038</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>121</v>
@@ -8519,19 +8519,19 @@
         <v>95519</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>81165</v>
+        <v>81324</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>111292</v>
+        <v>111186</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2683352002053249</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2280106339143788</v>
+        <v>0.2284568099219352</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3126438387548569</v>
+        <v>0.3123453461385284</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>219</v>
@@ -8540,19 +8540,19 @@
         <v>195927</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>170757</v>
+        <v>173196</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>221519</v>
+        <v>223898</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1951687777850702</v>
+        <v>0.1951687777850701</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1700968029179219</v>
+        <v>0.1725264711741933</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2206621832379304</v>
+        <v>0.2230323640394187</v>
       </c>
     </row>
     <row r="28">
